--- a/AutoBets/Msg.xlsx
+++ b/AutoBets/Msg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsant\Documents\AutoBets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsant\Documents\PYTHON_CODES\AutoBets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC4D801-E3DD-48F8-9C02-DC523D6D8743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11CB7D-1507-4D2D-9830-10DE0FB75FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,15 +196,9 @@
     <t>vou tentar aqui de doge no auto</t>
   </si>
   <si>
-    <t>botei fé na jogada e nada</t>
-  </si>
-  <si>
     <t>voltamos com mais</t>
   </si>
   <si>
-    <t>Hello good evening</t>
-  </si>
-  <si>
     <t>Good luck all guys</t>
   </si>
   <si>
@@ -214,7 +208,13 @@
     <t>I'm ready to get coins</t>
   </si>
   <si>
-    <t>Boa tarde pessoal</t>
+    <t>Boa noite galera</t>
+  </si>
+  <si>
+    <t>Hello good afternoon</t>
+  </si>
+  <si>
+    <t>sigamos fortes na caçada</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:B999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -616,15 +616,15 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>52</v>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,12 +763,12 @@
         <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>44</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>37</v>

--- a/AutoBets/Msg.xlsx
+++ b/AutoBets/Msg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsant\Documents\PYTHON_CODES\AutoBets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11CB7D-1507-4D2D-9830-10DE0FB75FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A7CAF-039D-422F-9DA3-239DAB71257A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>WOLFBET</t>
   </si>
@@ -31,27 +31,12 @@
     <t>keep on earning coins my buddies</t>
   </si>
   <si>
-    <t>hunt the wolf now</t>
-  </si>
-  <si>
-    <t>boremos amigos</t>
-  </si>
-  <si>
     <t>nice win guys</t>
   </si>
   <si>
     <t>bora e simbora</t>
   </si>
   <si>
-    <t>Boremos ai meu povo</t>
-  </si>
-  <si>
-    <t>go to the usd now</t>
-  </si>
-  <si>
-    <t>keep on earning</t>
-  </si>
-  <si>
     <t>keep on hunt</t>
   </si>
   <si>
@@ -61,24 +46,12 @@
     <t>sorte pra quem tá on</t>
   </si>
   <si>
-    <t>seguimos para mais</t>
-  </si>
-  <si>
-    <t>vamo de contests</t>
-  </si>
-  <si>
     <t>go ahead in your bets</t>
   </si>
   <si>
-    <t>let's get started with this</t>
-  </si>
-  <si>
     <t>go winners go</t>
   </si>
   <si>
-    <t>trabalhando e trabalhando</t>
-  </si>
-  <si>
     <t>today is the better day to earn bch</t>
   </si>
   <si>
@@ -94,12 +67,6 @@
     <t>Agora é hora de ganhar</t>
   </si>
   <si>
-    <t>good luck who stay here!</t>
-  </si>
-  <si>
-    <t>fight against wolf</t>
-  </si>
-  <si>
     <t>go up and earn all coins</t>
   </si>
   <si>
@@ -112,33 +79,21 @@
     <t>for coins now</t>
   </si>
   <si>
-    <t>Everyone have fun now</t>
-  </si>
-  <si>
     <t>hora de botar o nome dos br nas contests</t>
   </si>
   <si>
     <t>where arre the rich in this chat?</t>
   </si>
   <si>
-    <t>Vamo simbora pra mais uma</t>
-  </si>
-  <si>
     <t>the next station Earn Coins</t>
   </si>
   <si>
     <t>good shot guys</t>
   </si>
   <si>
-    <t>seguimos em frente e com positividade</t>
-  </si>
-  <si>
     <t>sorte pra quem tá aqui nessa madruga</t>
   </si>
   <si>
-    <t>Até mais pessoal, voi indo</t>
-  </si>
-  <si>
     <t xml:space="preserve">pra mais uma </t>
   </si>
   <si>
@@ -148,36 +103,15 @@
     <t>good luck for arriving now!!</t>
   </si>
   <si>
-    <t>já cansei</t>
-  </si>
-  <si>
     <t>boremos meu povo</t>
   </si>
   <si>
-    <t>segui aqui tranquilo ganhando por aqui</t>
-  </si>
-  <si>
-    <t>go now and again</t>
-  </si>
-  <si>
     <t>the day lost coins for me</t>
   </si>
   <si>
-    <t>vamos contestiar(contests)</t>
-  </si>
-  <si>
-    <t>time coffee</t>
-  </si>
-  <si>
-    <t>simboremos para mais</t>
-  </si>
-  <si>
     <t>e vamo pra mais uma coin</t>
   </si>
   <si>
-    <t>great coins for us</t>
-  </si>
-  <si>
     <t>Boa sorte</t>
   </si>
   <si>
@@ -196,32 +130,101 @@
     <t>vou tentar aqui de doge no auto</t>
   </si>
   <si>
-    <t>voltamos com mais</t>
-  </si>
-  <si>
-    <t>Good luck all guys</t>
-  </si>
-  <si>
     <t>Go ahead to bets</t>
   </si>
   <si>
     <t>I'm ready to get coins</t>
   </si>
   <si>
-    <t>Boa noite galera</t>
-  </si>
-  <si>
-    <t>Hello good afternoon</t>
-  </si>
-  <si>
-    <t>sigamos fortes na caçada</t>
+    <t>Boa tarde pessoal</t>
+  </si>
+  <si>
+    <t>Sigamos para mais com muita sorte</t>
+  </si>
+  <si>
+    <t>Boremos amigos</t>
+  </si>
+  <si>
+    <t>Lucrar aqui para pagar minhas contas</t>
+  </si>
+  <si>
+    <t>vamo de win</t>
+  </si>
+  <si>
+    <t>vamo simbora</t>
+  </si>
+  <si>
+    <t>hora do café</t>
+  </si>
+  <si>
+    <t>sorte ai amigos e amigas</t>
+  </si>
+  <si>
+    <t>Fala serio, minhas wins se foram</t>
+  </si>
+  <si>
+    <t>Hello good evening</t>
+  </si>
+  <si>
+    <t>Good luck all</t>
+  </si>
+  <si>
+    <t>go for coins now</t>
+  </si>
+  <si>
+    <t>have a nice rolls my buddies</t>
+  </si>
+  <si>
+    <t>agora é hora de ganhar</t>
+  </si>
+  <si>
+    <t>Sigamos para mais uma</t>
+  </si>
+  <si>
+    <t>vamo ganhar</t>
+  </si>
+  <si>
+    <t>vou arrumar a casa(banco win) hehe</t>
+  </si>
+  <si>
+    <t>vamo para mais e mais</t>
+  </si>
+  <si>
+    <t>sorte ai meus camaradas</t>
+  </si>
+  <si>
+    <t>até mais talvez eu volto</t>
+  </si>
+  <si>
+    <t>Bye guys, see ya in the next</t>
+  </si>
+  <si>
+    <t>rest a little bit now</t>
+  </si>
+  <si>
+    <t>go to the Coin Train</t>
+  </si>
+  <si>
+    <t>more green and less reds.</t>
+  </si>
+  <si>
+    <t>break to coffee!</t>
+  </si>
+  <si>
+    <t>My rolls were very bad today, but tomorrow I believe will be better</t>
+  </si>
+  <si>
+    <t>go up usd</t>
+  </si>
+  <si>
+    <t>It's time to earn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -229,28 +232,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -269,36 +266,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -316,65 +289,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,286 +524,286 @@
   <dimension ref="A1:B999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.77734375" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" customWidth="1"/>
     <col min="3" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>43</v>
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>50</v>
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>42</v>
+      <c r="A33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
+      <c r="A34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
